--- a/OriginalMaterials/Table 1.xlsx
+++ b/OriginalMaterials/Table 1.xlsx
@@ -1,31 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\papers\2017\Baccini Weymouth 2017\Draft\APSR\R&amp;R Draft\US level data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zagreb\Downloads\Docs\Research\ReplicationPaper\OriginalMaterials\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74BA2845-4744-4B90-9428-0FD0B7C2F6C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14160" windowHeight="12030" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="employment_race" sheetId="1" r:id="rId1"/>
     <sheet name="layoffs_race" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="41">
   <si>
     <t>White Alone</t>
   </si>
@@ -153,7 +163,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -475,11 +485,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1280,31 +1290,31 @@
         <v>38</v>
       </c>
       <c r="B36" s="3">
-        <f>B34/$B$35</f>
+        <f t="shared" ref="B36:H36" si="1">B34/$B$35</f>
         <v>0.81362585107025764</v>
       </c>
       <c r="C36" s="3">
-        <f>C34/$B$35</f>
+        <f t="shared" si="1"/>
         <v>9.8529747977398233E-2</v>
       </c>
       <c r="D36" s="3">
-        <f>D34/$B$35</f>
+        <f t="shared" si="1"/>
         <v>8.7636698777184309E-3</v>
       </c>
       <c r="E36" s="3">
-        <f>E34/$B$35</f>
+        <f t="shared" si="1"/>
         <v>6.3600994082030959E-2</v>
       </c>
       <c r="F36" s="3">
-        <f>F34/$B$35</f>
+        <f t="shared" si="1"/>
         <v>2.2242401316933829E-3</v>
       </c>
       <c r="G36" s="3">
-        <f>G34/$B$35</f>
+        <f t="shared" si="1"/>
         <v>1.3255496860901323E-2</v>
       </c>
       <c r="H36" s="3">
-        <f>H34/$B$35</f>
+        <f t="shared" si="1"/>
         <v>0.14645181999751028</v>
       </c>
     </row>
@@ -1314,11 +1324,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1345,6 +1355,9 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">

--- a/OriginalMaterials/Table 1.xlsx
+++ b/OriginalMaterials/Table 1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zagreb\Downloads\Docs\Research\ReplicationPaper\OriginalMaterials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74BA2845-4744-4B90-9428-0FD0B7C2F6C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28991784-7EFF-4436-9428-A58C8AECE66A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="employment_race" sheetId="1" r:id="rId1"/>
@@ -164,10 +164,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,6 +181,13 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -198,16 +207,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -486,18 +498,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -520,330 +538,331 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="4">
         <v>13988781</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="4">
         <v>1146258</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="4">
         <v>203611</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="4">
         <v>908402</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="4">
         <v>33759</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="4">
         <v>201228</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="4">
         <v>1807031</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="4">
         <v>14381809</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="4">
         <v>1188188</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="4">
         <v>210657</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="4">
         <v>832780</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="4">
         <v>31228</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="4">
         <v>201523</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="4">
         <v>1724792</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="4">
         <v>14544200</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="4">
         <v>1242708</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="4">
         <v>202431</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="4">
         <v>897167</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="4">
         <v>32363</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="4">
         <v>205001</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="4">
         <v>1923861</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="4">
         <v>14549194</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="4">
         <v>1285405</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="4">
         <v>198615</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="4">
         <v>948419</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="4">
         <v>33487</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="4">
         <v>209743</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="4">
         <v>2104585</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="4">
         <v>14709491</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="4">
         <v>1293591</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="4">
         <v>193453</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="4">
         <v>996768</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="4">
         <v>34591</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="4">
         <v>212335</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="4">
         <v>2201746</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="4">
         <v>14780908</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="4">
         <v>1458176</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="4">
         <v>180972</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="4">
         <v>993321</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="4">
         <v>33697</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="4">
         <v>207149</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="4">
         <v>2269132</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="4">
         <v>14488661</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="4">
         <v>1641305</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="4">
         <v>165777</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="4">
         <v>946462</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="4">
         <v>33059</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="4">
         <v>200485</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="4">
         <v>2207525</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="4">
         <v>14394530</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="4">
         <v>1678754</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="4">
         <v>159101</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="4">
         <v>965086</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="4">
         <v>35191</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="4">
         <v>201198</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="4">
         <v>2282419</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="4">
         <v>13724472</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="4">
         <v>1626165</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="4">
         <v>142355</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="4">
         <v>888045</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="4">
         <v>31461</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="4">
         <v>187703</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="4">
         <v>2112108</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="4">
         <v>12725728</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="4">
         <v>1497970</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="4">
         <v>127510</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="4">
         <v>804064</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="4">
         <v>28502</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="4">
         <v>170575</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="4">
         <v>1975017</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="4">
         <v>12134744</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="4">
         <v>1421703</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="4">
         <v>121442</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="4">
         <v>759775</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="4">
         <v>27086</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="4">
         <v>161979</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="4">
         <v>1912897</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="4">
         <v>11870978</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="4">
         <v>1443115</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="4">
         <v>120354</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="4">
         <v>756160</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="4">
         <v>26672</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="4">
         <v>160761</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="4">
         <v>1920117</v>
       </c>
     </row>
@@ -851,25 +870,25 @@
       <c r="A17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="4">
         <v>11793392</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="4">
         <v>1441245</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="4">
         <v>124047</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="4">
         <v>768992</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="4">
         <v>27463</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="4">
         <v>165131</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="4">
         <v>1958141</v>
       </c>
     </row>
@@ -877,25 +896,25 @@
       <c r="A18" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="4">
         <v>11682358</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="4">
         <v>1441107</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="4">
         <v>125325</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="4">
         <v>789688</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="4">
         <v>28839</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="4">
         <v>169761</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="4">
         <v>1988820</v>
       </c>
     </row>
@@ -903,25 +922,25 @@
       <c r="A19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="4">
         <v>11449846</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="4">
         <v>1412885</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="4">
         <v>124000</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="4">
         <v>793071</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="4">
         <v>29324</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="4">
         <v>170740</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="4">
         <v>1979809</v>
       </c>
     </row>
@@ -929,25 +948,25 @@
       <c r="A20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="4">
         <v>11102037</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="4">
         <v>1356171</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="4">
         <v>120586</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="4">
         <v>789140</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="4">
         <v>29174</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="4">
         <v>168099</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="4">
         <v>1932886</v>
       </c>
     </row>
@@ -955,25 +974,25 @@
       <c r="A21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="4">
         <v>9854642</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="4">
         <v>1164741</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="4">
         <v>104217</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="4">
         <v>727102</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="4">
         <v>25811</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="4">
         <v>147708</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="4">
         <v>1703683</v>
       </c>
     </row>
@@ -981,25 +1000,25 @@
       <c r="A22" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="4">
         <v>9504046</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="4">
         <v>1089072</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="4">
         <v>98313</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="4">
         <v>712220</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="4">
         <v>24402</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="4">
         <v>140885</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="4">
         <v>1635982</v>
       </c>
     </row>
@@ -1007,25 +1026,25 @@
       <c r="A23" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="4">
         <v>9658036</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="4">
         <v>1105652</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="4">
         <v>99814</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="4">
         <v>735710</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="4">
         <v>24762</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="4">
         <v>145350</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="4">
         <v>1666573</v>
       </c>
     </row>
@@ -1033,25 +1052,25 @@
       <c r="A24" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="4">
         <v>9801988</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="4">
         <v>1140614</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="4">
         <v>103466</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="4">
         <v>752995</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="4">
         <v>25710</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="4">
         <v>151784</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="4">
         <v>1715165</v>
       </c>
     </row>
@@ -1059,25 +1078,25 @@
       <c r="A25" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="4">
         <v>9837960</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="4">
         <v>1170830</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="4">
         <v>104789</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="4">
         <v>763720</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="4">
         <v>26462</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="4">
         <v>156648</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="4">
         <v>1748008</v>
       </c>
     </row>
@@ -1085,25 +1104,25 @@
       <c r="A26" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="4">
         <v>9922588</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="4">
         <v>1213812</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="4">
         <v>107516</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="4">
         <v>779994</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="4">
         <v>27422</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="4">
         <v>164153</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="4">
         <v>1802447</v>
       </c>
     </row>
@@ -1111,25 +1130,25 @@
       <c r="A27" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="4">
         <v>9986239</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="4">
         <v>1264084</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="4">
         <v>110214</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="4">
         <v>794812</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="4">
         <v>28522</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="4">
         <v>171739</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="4">
         <v>1853119</v>
       </c>
     </row>
@@ -1137,25 +1156,25 @@
       <c r="A28" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="4">
         <v>9938940</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="4">
         <v>1294682</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="4">
         <v>110378</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="4">
         <v>804380</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="4">
         <v>29310</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="4">
         <v>177190</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="4">
         <v>1877932</v>
       </c>
     </row>
@@ -1163,25 +1182,25 @@
       <c r="A29" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="4">
         <v>9960646</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="4">
         <v>1333512</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="4">
         <v>112447</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="4">
         <v>820774</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="4">
         <v>30514</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="4">
         <v>184870</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="4">
         <v>1921582</v>
       </c>
     </row>
@@ -1189,25 +1208,25 @@
       <c r="A30" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="4">
         <v>10112076</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="4">
         <v>1348437</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="4">
         <v>117431</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="4">
         <v>853981</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="4">
         <v>32107</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="4">
         <v>198113</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="4">
         <v>1993941</v>
       </c>
     </row>
@@ -1215,25 +1234,25 @@
       <c r="A31" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="4">
         <v>10201787</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="4">
         <v>1378871</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="4">
         <v>121240</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="4">
         <v>876962</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="4">
         <v>33219</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="4">
         <v>208634</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="4">
         <v>2048872</v>
       </c>
     </row>
@@ -1320,6 +1339,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1327,8 +1347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
